--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Stable Angina_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Stable Angina_gen_overall.xlsx
@@ -467,51 +467,51 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This classic presentation is highly indicative of Stable Angina, as it typically occurs during physical activity and subsides with rest.</t>
+          <t>This is a classic presentation of Stable Angina, where the pain is triggered by physical activity and subsides with rest.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chest pain that occurs at rest and lasts longer than 20 minutes</t>
+          <t>Chest pain at rest</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pain that occurs at rest and lasts longer than typical angina episodes is more suggestive of unstable angina or other conditions, arguing against Stable Angina.</t>
+          <t>Pain occurring at rest is more indicative of Unstable Angina or other conditions, rather than Stable Angina.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pain described as a pressure or squeezing sensation</t>
+          <t>Predictable pattern of chest pain over time</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The characteristic quality of angina pain, often described as pressure or squeezing, supports the diagnosis of Stable Angina.</t>
+          <t>Stable Angina is characterized by a consistent pattern of symptoms over time, often triggered by similar levels of exertion.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of risk factors for coronary artery disease</t>
+          <t>Pain lasting more than 30 minutes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A lack of risk factors such as smoking, hypertension, or diabetes diminishes the likelihood of Stable Angina.</t>
+          <t>Prolonged chest pain is atypical for Stable Angina and suggests other diagnoses such as myocardial infarction.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Symptoms lasting for a predictable duration, usually less than 15 minutes</t>
+          <t>Chest pain described as pressure or squeezing</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stable Angina is characterized by predictable episodes of chest pain that have a consistent duration, which supports the diagnosis.</t>
+          <t>The typical description of angina pain is a pressure or squeezing sensation, which is more specific to Stable Angina.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -521,51 +521,51 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>If chest pain does not improve with rest or nitroglycerin, it is less likely to be Stable Angina, which typically responds to these interventions.</t>
+          <t>Stable Angina pain is usually relieved by rest or nitroglycerin; lack of relief suggests an alternative diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Symptoms triggered by emotional stress or heavy meals</t>
+          <t>Pain radiating to the left arm or jaw</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Triggers such as stress or heavy meals are common in Stable Angina, indicating a relationship with increased myocardial oxygen demand.</t>
+          <t>Radiation of pain to the left arm or jaw is a common feature of angina, supporting the diagnosis of Stable Angina.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Symptoms associated with positional changes or respiratory movements</t>
+          <t>Sharp or stabbing chest pain</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pain that changes with position or is related to breathing is more indicative of musculoskeletal or pulmonary issues rather than Stable Angina.</t>
+          <t>Sharp or stabbing pain is less characteristic of angina and more suggestive of other conditions like musculoskeletal pain.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of coronary artery disease or risk factors such as hypertension or diabetes</t>
+          <t>Pain lasting less than 15 minutes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A background of coronary artery disease or associated risk factors significantly increases the likelihood of Stable Angina.</t>
+          <t>Stable Angina pain typically lasts for a short duration, usually less than 15 minutes, especially if relieved by rest or nitroglycerin.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of similar episodes in the past</t>
+          <t>Pain associated with palpitations or dizziness</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A lack of previous episodes of chest pain reduces the likelihood of a diagnosis of Stable Angina, which is typically recurrent.</t>
+          <t>Symptoms like palpitations or dizziness accompanying chest pain may indicate other cardiac or non-cardiac conditions.</t>
         </is>
       </c>
     </row>
@@ -613,12 +613,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of coronary artery disease (CAD)</t>
+          <t>History of coronary artery disease</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patients with a history of CAD are at a significantly higher risk for developing Stable Angina due to the underlying atherosclerosis.</t>
+          <t>A past diagnosis of coronary artery disease is a strong risk factor for stable angina, as it indicates the presence of atherosclerosis which can lead to angina.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -628,95 +628,95 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of cardiovascular disease history significantly reduces the likelihood of Stable Angina being present.</t>
+          <t>The absence of any cardiovascular disease history reduces the likelihood of stable angina, which is often associated with underlying heart conditions.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous myocardial infarction (MI)</t>
+          <t>Previous myocardial infarction</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A history of MI indicates prior heart damage, which increases the likelihood of angina due to reduced myocardial perfusion.</t>
+          <t>A history of myocardial infarction suggests significant coronary artery disease, which is a common cause of stable angina.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No previous episodes of chest pain</t>
+          <t>No use of cardiovascular medications</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of chest pain episodes suggests that the patient has not experienced angina, making it less likely.</t>
+          <t>Not using medications typically prescribed for angina or heart disease suggests a lower likelihood of stable angina.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Use of nitrates for chest pain relief</t>
+          <t>Use of anti-anginal medications</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The use of nitrates suggests that the patient has experienced angina symptoms, as these medications are commonly prescribed for angina relief.</t>
+          <t>Current use of medications such as nitrates, beta-blockers, or calcium channel blockers indicates management of angina symptoms, supporting a diagnosis of stable angina.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No use of antianginal medications</t>
+          <t>No history of chest pain</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Not using medications typically prescribed for angina indicates that the patient may not have experienced angina symptoms.</t>
+          <t>Stable angina is characterized by chest pain; its absence in the past medical history makes the diagnosis less likely.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of hypertension</t>
+          <t>History of revascularization procedures</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hypertension is a significant risk factor for coronary artery disease, which is closely associated with Stable Angina.</t>
+          <t>Past surgical interventions like coronary artery bypass grafting or percutaneous coronary intervention suggest significant coronary artery disease, often associated with stable angina.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal exercise tolerance without symptoms</t>
+          <t>No history of diabetes mellitus</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Being able to exercise without experiencing symptoms suggests that the patient is unlikely to have Stable Angina.</t>
+          <t>Diabetes is a significant risk factor for coronary artery disease and angina; its absence reduces the likelihood of stable angina.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of hyperlipidemia</t>
+          <t>Diagnosis of hypertension</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hyperlipidemia contributes to the development of atherosclerosis, increasing the risk of Stable Angina.</t>
+          <t>Hypertension is a risk factor for coronary artery disease, which can lead to stable angina.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No family history of heart disease</t>
+          <t>No history of hyperlipidemia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of a family history of heart disease decreases the risk factors associated with Stable Angina.</t>
+          <t>Hyperlipidemia is a risk factor for atherosclerosis and coronary artery disease, which can lead to stable angina; its absence makes the diagnosis less likely.</t>
         </is>
       </c>
     </row>
@@ -769,61 +769,61 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A strong family history of coronary artery disease increases the likelihood of developing stable angina due to genetic predisposition.</t>
+          <t>A family history of coronary artery disease increases the risk of developing Stable Angina due to genetic predisposition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Active participation in regular physical exercise</t>
+          <t>No family history of coronary artery disease</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Regular physical activity is protective against cardiovascular diseases, reducing the likelihood of stable angina.</t>
+          <t>Absence of a family history of coronary artery disease reduces the genetic risk for Stable Angina.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sedentary lifestyle</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A sedentary lifestyle is associated with higher risk factors for cardiovascular diseases, including stable angina.</t>
+          <t>Smoking is a significant risk factor for coronary artery disease, which can lead to Stable Angina.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of hypertension or diabetes</t>
+          <t>Non-smoker</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of hypertension and diabetes significantly lowers the risk of developing stable angina.</t>
+          <t>Not smoking significantly reduces the risk of coronary artery disease and thus Stable Angina.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Smoking history</t>
+          <t>Sedentary lifestyle</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A history of smoking significantly increases the risk of coronary artery disease, which is a primary cause of stable angina.</t>
+          <t>A sedentary lifestyle contributes to the development of coronary artery disease, increasing the likelihood of Stable Angina.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Healthy diet with low saturated fats</t>
+          <t>Regular physical activity</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A diet low in saturated fats is associated with a lower risk of coronary artery disease, thus reducing the likelihood of stable angina.</t>
+          <t>Engaging in regular physical activity lowers the risk of coronary artery disease, decreasing the likelihood of Stable Angina.</t>
         </is>
       </c>
     </row>
@@ -835,39 +835,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Occupational stress can contribute to cardiovascular strain, increasing the risk of stable angina.</t>
+          <t>Chronic stress is associated with increased risk of coronary artery disease, which can manifest as Stable Angina.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No family history of heart disease</t>
+          <t>Low-stress lifestyle</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lack of family history of heart disease suggests a lower genetic predisposition to conditions like stable angina.</t>
+          <t>A low-stress lifestyle is associated with a reduced risk of coronary artery disease, making Stable Angina less likely.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Obesity in family members</t>
+          <t>Diet high in saturated fats</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Obesity is a known risk factor for coronary artery disease, and familial patterns can indicate a higher risk for stable angina.</t>
+          <t>A diet high in saturated fats can lead to atherosclerosis, a key factor in the development of Stable Angina.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Low-stress lifestyle</t>
+          <t>Diet low in saturated fats</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A low-stress lifestyle is associated with better cardiovascular health, decreasing the risk of stable angina.</t>
+          <t>A diet low in saturated fats reduces the risk of atherosclerosis, thereby decreasing the likelihood of Stable Angina.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chest pain that is reproducible with exertion</t>
+          <t>Chest pain reproducible by exertion and relieved by rest</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is characteristic of stable angina, as the pain typically occurs with physical activity and is relieved by rest.</t>
+          <t>This is a classic presentation of stable angina, where physical exertion triggers chest pain due to increased myocardial oxygen demand, and rest alleviates it.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal electrocardiogram (ECG) at rest</t>
+          <t>Chest pain not related to exertion</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal ECG at rest is more common in patients without stable angina, as ischemic changes typically appear during episodes of angina.</t>
+          <t>Chest pain that occurs at rest or is not related to physical activity is less likely to be stable angina, which is typically exertional.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Normal physical exam findings at rest</t>
+          <t>Normal physical exam between episodes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Patients with stable angina often have a normal physical exam when not experiencing angina, which supports the diagnosis as the symptoms are exertional.</t>
+          <t>Patients with stable angina often have normal physical exams when not experiencing an angina attack, as the condition is episodic and related to exertion.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of significant risk factors for coronary artery disease</t>
+          <t>Pain lasting more than 20 minutes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Without risk factors, the likelihood of stable angina decreases significantly, as it is often associated with underlying coronary artery disease.</t>
+          <t>Stable angina usually resolves within minutes of rest; prolonged pain suggests other conditions such as unstable angina or myocardial infarction.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Possible presence of risk factors for coronary artery disease (CAD)</t>
+          <t>Presence of a third heart sound (S3) during an episode</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The presence of risk factors such as hypertension, hyperlipidemia, or diabetes increases the likelihood of stable angina due to underlying CAD.</t>
+          <t>An S3 heart sound can indicate transient left ventricular dysfunction during an angina episode, supporting the diagnosis of stable angina.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No significant changes in vital signs during episodes of chest pain</t>
+          <t>No change in pain with exertion</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Stable angina typically presents with changes in vital signs; absence of these changes suggests an alternative diagnosis.</t>
+          <t>Stable angina is characterized by pain that worsens with exertion; lack of this pattern suggests an alternative diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Slightly elevated blood pressure during episodes of chest pain</t>
+          <t>Transient hypertension during episodes</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Elevated blood pressure can occur during angina episodes, indicating increased cardiac workload, which is consistent with stable angina.</t>
+          <t>Increased blood pressure during an angina episode can occur due to sympathetic nervous system activation, which is consistent with stable angina.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Negative exercise stress test</t>
+          <t>Normal heart sounds during episodes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A negative result on an exercise stress test indicates that there is no evidence of ischemia, which argues against stable angina.</t>
+          <t>The absence of any abnormal heart sounds during an episode may suggest that the chest pain is not due to cardiac ischemia.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Presence of a third heart sound (S3) or a fourth heart sound (S4)</t>
+          <t>Transient tachycardia during episodes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>These heart sounds can indicate underlying cardiac issues that may be associated with stable angina, particularly in the context of ischemia.</t>
+          <t>An increased heart rate during an angina episode is common as the body attempts to meet increased oxygen demands, supporting stable angina.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No signs of heart failure on physical examination</t>
+          <t>No change in blood pressure during episodes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of heart failure signs, such as edema or jugular venous distension, suggests that the patient is less likely to have stable angina.</t>
+          <t>Stable angina often causes transient changes in blood pressure; a lack of such changes may indicate a non-cardiac cause of chest pain.</t>
         </is>
       </c>
     </row>
@@ -1071,105 +1071,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A positive result indicates induced ischemia, which is characteristic of Stable Angina.</t>
+          <t>A positive exercise stress test indicates ischemia, which is commonly associated with Stable Angina.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal coronary angiography</t>
+          <t>Normal exercise stress test</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal angiogram suggests no significant coronary artery disease, making Stable Angina unlikely.</t>
+          <t>A normal exercise stress test suggests the absence of ischemia, arguing against Stable Angina.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coronary angiography showing significant stenosis</t>
+          <t>Reversible perfusion defect on myocardial perfusion imaging</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Presence of significant coronary artery blockage supports the diagnosis of Stable Angina due to reduced blood flow.</t>
+          <t>Reversible perfusion defects suggest ischemia during stress, a hallmark of Stable Angina.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negative exercise stress test</t>
+          <t>No perfusion defects on myocardial perfusion imaging</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A negative result indicates no ischemia, which argues against the presence of Stable Angina.</t>
+          <t>The absence of perfusion defects indicates no ischemia, which is inconsistent with Stable Angina.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Positive myocardial perfusion imaging</t>
+          <t>Coronary artery stenosis on coronary angiography</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>This test shows areas of reduced blood flow during stress, consistent with Stable Angina.</t>
+          <t>Significant stenosis in coronary arteries is a direct indicator of the presence of Stable Angina.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal myocardial perfusion imaging</t>
+          <t>No significant coronary artery stenosis on coronary angiography</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal results indicate adequate blood flow and are inconsistent with Stable Angina.</t>
+          <t>The lack of significant stenosis in coronary arteries suggests that Stable Angina is unlikely.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Elevated troponin levels during episodes</t>
+          <t>ST-segment depression during stress testing</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While typically associated with acute conditions, transient elevations can occur in Stable Angina during episodes of chest pain.</t>
+          <t>ST-segment depression during stress is indicative of myocardial ischemia, supporting Stable Angina.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Negative troponin levels</t>
+          <t>Normal ECG during stress testing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consistently normal troponin levels suggest no myocardial injury, making Stable Angina less likely.</t>
+          <t>A normal ECG during stress testing indicates no ischemic changes, which argues against Stable Angina.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ECG changes during stress testing</t>
+          <t>Elevated troponin levels during stress test</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ischemic changes on an ECG during stress testing are indicative of Stable Angina.</t>
+          <t>Elevated troponin levels during stress suggest myocardial ischemia, which is consistent with Stable Angina.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No ECG changes at rest or during stress</t>
+          <t>Normal troponin levels during stress test</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of ischemic changes on ECG suggests that Stable Angina is not present.</t>
+          <t>Normal troponin levels during stress suggest no myocardial damage or ischemia, which is inconsistent with Stable Angina.</t>
         </is>
       </c>
     </row>
